--- a/src/testCase/c_useCase_file/Fiberbook/机翼优化响应/梁腹板缘条铺层比之差设计响应.xlsx
+++ b/src/testCase/c_useCase_file/Fiberbook/机翼优化响应/梁腹板缘条铺层比之差设计响应.xlsx
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t>预期结果文本信息</t>
   </si>
@@ -356,31 +356,202 @@
     <t>初始化级别</t>
   </si>
   <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
+  </si>
+  <si>
+    <t>关闭按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的控件操作一遍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 整个被测模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元][Button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总厚度复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上缘条厚度复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹板厚度复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下缘条厚度复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出到include文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>测试结果等待时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>控件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件类型一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件类型二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所操作控件窗口</t>
+    <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总厚度复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下缘条厚度复选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>创建按钮</t>
@@ -391,93 +562,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期值控件标识属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的控件操作一遍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出到include文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮--弹窗套件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -486,11 +570,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 整个被测模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择</t>
+    <t>勾选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thickness_ratio</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -502,35 +590,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>泊松比匹配文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>poisson</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同名Include文件poisson已存在。是否继续?；开始创建应变耦合DRESP3…应变耦合DRESP3创建成功!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>泊松比匹配响应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化-&gt;优化设置-&gt;泊松比匹配响应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bsbppxy001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化设置--泊松比匹配响应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元][Button</t>
+    <t>差值文本框</t>
+  </si>
+  <si>
+    <t>差值文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名Include文件plypct_diff已存在。是否继续?；开始创建应变耦合DRESP3…应变耦合DRESP3创建成功!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁腹板缘条铺层比之差设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化-&gt;优化设置-&gt;机翼优化响应-&gt;梁腹板缘条铺层比之差设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lfbytpcbzc001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -636,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -672,12 +755,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,6 +763,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -991,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="105" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1003,107 +1083,167 @@
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="H3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -1120,92 +1260,152 @@
       <c r="F6" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+        <v>46</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1216,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="51.6" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1230,150 +1430,174 @@
     <col min="4" max="4" width="8.125" style="10" customWidth="1"/>
     <col min="5" max="11" width="9" style="10"/>
     <col min="12" max="12" width="10.75" style="10" customWidth="1"/>
-    <col min="13" max="14" width="8.125" style="8" customWidth="1"/>
-    <col min="15" max="17" width="8.125" style="10" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="10"/>
+    <col min="13" max="13" width="8.125" style="8" customWidth="1"/>
+    <col min="14" max="16" width="8.125" style="10" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="17" t="s">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>22</v>
+      <c r="J1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="16" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="12">
+      <c r="J2" s="14">
         <v>1</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="11">
         <v>0.2</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" ht="13.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:21" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
